--- a/data/hotels_by_city/Dallas/Dallas_shard_552.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_552.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,126 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r391357854-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>56133</t>
+  </si>
+  <si>
+    <t>1157428</t>
+  </si>
+  <si>
+    <t>391357854</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>horrible service</t>
+  </si>
+  <si>
+    <t>the customer service at this location was more than horrible, when you call the front office on the phone they always sounded like they were just waking up, when you ask for towels it was always a problem, and the pool was drained and not ready use, i had four children with me i asked was there a pool when i booked i was told yes, but never told it was down and could not use. i would never ever recommend this location to anyone, it sucks bad!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r389490403-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>389490403</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>not satisfied</t>
+  </si>
+  <si>
+    <t>as soon as we walked in I saw a roach crawling across the floor and the bathroom was absolutely filthy. The air conditioning leaked water all on the floor throughout the night causing my bag to get wet. The walls are extremely thin, we could not enjoy our stay due to all the activity going on next door and the room reeked of heavy smoke.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r388579825-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>388579825</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>4th of July with a Saint Patty's day Pool</t>
+  </si>
+  <si>
+    <t>Clean sheets and soft pillows. If that is all you require you'll be OK.Room had no wash cloths, Towels thin and mold around tub. Pool was/is closed and green. To bad it was 100°. While Motel 6 does not serve a breakfast it is located in the middle of two waffle houses and a plethora of fast food restaurants. Noise level was not bad for being next to 35E.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Experience Team Member at Motel 6 Dallas - De Soto - Lancaster, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Clean sheets and soft pillows. If that is all you require you'll be OK.Room had no wash cloths, Towels thin and mold around tub. Pool was/is closed and green. To bad it was 100°. While Motel 6 does not serve a breakfast it is located in the middle of two waffle houses and a plethora of fast food restaurants. Noise level was not bad for being next to 35E.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r219066172-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>219066172</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Clean and cheap and close to Dallas</t>
+  </si>
+  <si>
+    <t>Hotel room has been updated since these photos. The 1970's bedspread is gone! Room was a little on the small side, but very clean and not cramped for two people. Beds were decent and shower water pressure was great. A few signs of age in the tub, but overall a sufficient room for an overnight stay. The young man at check-in was pleasant and helpful. No coffee pot in room and no complimentary shampoo bottles. Tiny, thin towels.We were attending an event at the Cotton Bowl and opted to stay just outside the city where hotel rates are much cheaper. This location is on the freeway about 15 minutes south of downtown Dallas, so we avoided the madness of traffic and freeway confusion in the city.There are several budget hotels within a one mile stretch and we have stayed at the Holiday Inn Express before which was excellent. However, the Motel 6 was 50+ dollars cheaper and that practically paid for our gas! I was afraid it might be too rundown, but it was in good shape and we had a comfortable one night stay,MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Hotel room has been updated since these photos. The 1970's bedspread is gone! Room was a little on the small side, but very clean and not cramped for two people. Beds were decent and shower water pressure was great. A few signs of age in the tub, but overall a sufficient room for an overnight stay. The young man at check-in was pleasant and helpful. No coffee pot in room and no complimentary shampoo bottles. Tiny, thin towels.We were attending an event at the Cotton Bowl and opted to stay just outside the city where hotel rates are much cheaper. This location is on the freeway about 15 minutes south of downtown Dallas, so we avoided the madness of traffic and freeway confusion in the city.There are several budget hotels within a one mile stretch and we have stayed at the Holiday Inn Express before which was excellent. However, the Motel 6 was 50+ dollars cheaper and that practically paid for our gas! I was afraid it might be too rundown, but it was in good shape and we had a comfortable one night stay,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r175826190-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>175826190</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel. Good rates!</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 for 3 nights and was fairly happy with my accomodations. First off, the rates that they charge at this hotel are extremely attractive when compared to other hotels in this area. Second, the room I was given looked like it must have been freshly painted within the past month (my best guess). The room itself looked fairly clean upon entering and I found it to be satisfactory overall. It wasn't the most comfortable bed I have ever slept on, but it was acceptable. The television wasn't a flat screen, but that wasn't a huge issue for me. The quality of the channels they offer however are less than what I expected. I really didn't have a large selection to choose from. Also, a fair amount of the channels themselves had a problem with the sound quality. They would fluctuate between soft and loud when trying to listen to them. The bathroom was clean and the towels were satisfactory. But there is a minor problem with the water temperature as I found out while trying to take a shower. The water would go from extremely hot, back to cold, then back to very hot again every few minutes. All in all, it was a satisfactory stay and because of the rates, I would probably stay here again. FYI...This hotel doesn't have a restaurant within walking distance. But there is a mexican grocery store about a...I stayed at this Motel 6 for 3 nights and was fairly happy with my accomodations. First off, the rates that they charge at this hotel are extremely attractive when compared to other hotels in this area. Second, the room I was given looked like it must have been freshly painted within the past month (my best guess). The room itself looked fairly clean upon entering and I found it to be satisfactory overall. It wasn't the most comfortable bed I have ever slept on, but it was acceptable. The television wasn't a flat screen, but that wasn't a huge issue for me. The quality of the channels they offer however are less than what I expected. I really didn't have a large selection to choose from. Also, a fair amount of the channels themselves had a problem with the sound quality. They would fluctuate between soft and loud when trying to listen to them. The bathroom was clean and the towels were satisfactory. But there is a minor problem with the water temperature as I found out while trying to take a shower. The water would go from extremely hot, back to cold, then back to very hot again every few minutes. All in all, it was a satisfactory stay and because of the rates, I would probably stay here again. FYI...This hotel doesn't have a restaurant within walking distance. But there is a mexican grocery store about a 1/2 block away to the south where you can find some goodies to munch on.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 for 3 nights and was fairly happy with my accomodations. First off, the rates that they charge at this hotel are extremely attractive when compared to other hotels in this area. Second, the room I was given looked like it must have been freshly painted within the past month (my best guess). The room itself looked fairly clean upon entering and I found it to be satisfactory overall. It wasn't the most comfortable bed I have ever slept on, but it was acceptable. The television wasn't a flat screen, but that wasn't a huge issue for me. The quality of the channels they offer however are less than what I expected. I really didn't have a large selection to choose from. Also, a fair amount of the channels themselves had a problem with the sound quality. They would fluctuate between soft and loud when trying to listen to them. The bathroom was clean and the towels were satisfactory. But there is a minor problem with the water temperature as I found out while trying to take a shower. The water would go from extremely hot, back to cold, then back to very hot again every few minutes. All in all, it was a satisfactory stay and because of the rates, I would probably stay here again. FYI...This hotel doesn't have a restaurant within walking distance. But there is a mexican grocery store about a...I stayed at this Motel 6 for 3 nights and was fairly happy with my accomodations. First off, the rates that they charge at this hotel are extremely attractive when compared to other hotels in this area. Second, the room I was given looked like it must have been freshly painted within the past month (my best guess). The room itself looked fairly clean upon entering and I found it to be satisfactory overall. It wasn't the most comfortable bed I have ever slept on, but it was acceptable. The television wasn't a flat screen, but that wasn't a huge issue for me. The quality of the channels they offer however are less than what I expected. I really didn't have a large selection to choose from. Also, a fair amount of the channels themselves had a problem with the sound quality. They would fluctuate between soft and loud when trying to listen to them. The bathroom was clean and the towels were satisfactory. But there is a minor problem with the water temperature as I found out while trying to take a shower. The water would go from extremely hot, back to cold, then back to very hot again every few minutes. All in all, it was a satisfactory stay and because of the rates, I would probably stay here again. FYI...This hotel doesn't have a restaurant within walking distance. But there is a mexican grocery store about a 1/2 block away to the south where you can find some goodies to munch on.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +765,325 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_552.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_552.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>buisnessman27</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>td2233</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r389490403-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r388579825-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Clean sheets and soft pillows. If that is all you require you'll be OK.Room had no wash cloths, Towels thin and mold around tub. Pool was/is closed and green. To bad it was 100°. While Motel 6 does not serve a breakfast it is located in the middle of two waffle houses and a plethora of fast food restaurants. Noise level was not bad for being next to 35E.More</t>
   </si>
   <si>
+    <t>Debora D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r219066172-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
   </si>
   <si>
     <t>Hotel room has been updated since these photos. The 1970's bedspread is gone! Room was a little on the small side, but very clean and not cramped for two people. Beds were decent and shower water pressure was great. A few signs of age in the tub, but overall a sufficient room for an overnight stay. The young man at check-in was pleasant and helpful. No coffee pot in room and no complimentary shampoo bottles. Tiny, thin towels.We were attending an event at the Cotton Bowl and opted to stay just outside the city where hotel rates are much cheaper. This location is on the freeway about 15 minutes south of downtown Dallas, so we avoided the madness of traffic and freeway confusion in the city.There are several budget hotels within a one mile stretch and we have stayed at the Holiday Inn Express before which was excellent. However, the Motel 6 was 50+ dollars cheaper and that practically paid for our gas! I was afraid it might be too rundown, but it was in good shape and we had a comfortable one night stay,More</t>
+  </si>
+  <si>
+    <t>Dave A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r175826190-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
@@ -769,43 +784,47 @@
       <c r="A2" t="n">
         <v>47923</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -823,50 +842,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47923</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -886,50 +909,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47923</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -945,56 +972,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47923</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1014,50 +1045,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47923</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>19648</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1081,7 +1116,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_552.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_552.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>buisnessman27</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r406554022-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>56133</t>
+  </si>
+  <si>
+    <t>1157428</t>
+  </si>
+  <si>
+    <t>406554022</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Hot August Night</t>
+  </si>
+  <si>
+    <t>Pool is closed in the middle of August in Texas ...no water in pool-yet the pictures of the Motel show a working  clean pool..The room was clean but the bed was off the base leaving exposed wood on one side  and a sagging mattress on the other . TV remote trouble -took 4 trips to the office to get a working remote (they came to the room 3 times) finally got a working remote. Location is great for our needs (the Dallas VA is just minutes away) and the price is right  in spite of everything bad we probably will continue to stay there on future trips to the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Pool is closed in the middle of August in Texas ...no water in pool-yet the pictures of the Motel show a working  clean pool..The room was clean but the bed was off the base leaving exposed wood on one side  and a sagging mattress on the other . TV remote trouble -took 4 trips to the office to get a working remote (they came to the room 3 times) finally got a working remote. Location is great for our needs (the Dallas VA is just minutes away) and the price is right  in spite of everything bad we probably will continue to stay there on future trips to the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r401146182-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>401146182</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Horrible front desk staff</t>
+  </si>
+  <si>
+    <t>From the moment I started trying to call the hotel , the phone would ring ring &amp; ring. When she finally answered the lady was rude, I asked her about the price they advertised online &amp; she said no that's not the price here, book it online. Then I went online &amp; made the reservation for 2 rooms. After a very long and exhausting day we show up to check in around 1am and they inform us we don't have any reservations, I showed her the e-mail with the confirmation numbers &amp; she's getting rude and straight up saying no, so then we called customer service who then informs me that even tough I made the reservations, they were never pushed through to the property. I asked how is this possible? How am I suppose to not be upset I made a reservation thinking everything was taken care of, couldn't I at least get an e-mail saying that the reservations never went trough? The lady said sorry you'll have to contact the hotel directly for rates &amp; availability as it's past the cutoff time &amp; we can't help. So then we asked the front desk clerk could she honor the same price seeing as it was not our fault &amp; the reservation was made through the Motel 6 website &amp; not a 3rd party, She said no, I asked the customer service rep is there any way I can talk...From the moment I started trying to call the hotel , the phone would ring ring &amp; ring. When she finally answered the lady was rude, I asked her about the price they advertised online &amp; she said no that's not the price here, book it online. Then I went online &amp; made the reservation for 2 rooms. After a very long and exhausting day we show up to check in around 1am and they inform us we don't have any reservations, I showed her the e-mail with the confirmation numbers &amp; she's getting rude and straight up saying no, so then we called customer service who then informs me that even tough I made the reservations, they were never pushed through to the property. I asked how is this possible? How am I suppose to not be upset I made a reservation thinking everything was taken care of, couldn't I at least get an e-mail saying that the reservations never went trough? The lady said sorry you'll have to contact the hotel directly for rates &amp; availability as it's past the cutoff time &amp; we can't help. So then we asked the front desk clerk could she honor the same price seeing as it was not our fault &amp; the reservation was made through the Motel 6 website &amp; not a 3rd party, She said no, I asked the customer service rep is there any way I can talk to a supervisor &amp; they can call the hotel &amp; have them  honor the same price? Her answer? I'm sorry we're just the customer service center there's nothing we can do. It honestly didn't even feel like they were trying to help fix the issue One of the most horrible &amp; rude experiences I've had. I myself work in the hotel business &amp; I would NEVER dismiss someone the way this front desk lady did!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>From the moment I started trying to call the hotel , the phone would ring ring &amp; ring. When she finally answered the lady was rude, I asked her about the price they advertised online &amp; she said no that's not the price here, book it online. Then I went online &amp; made the reservation for 2 rooms. After a very long and exhausting day we show up to check in around 1am and they inform us we don't have any reservations, I showed her the e-mail with the confirmation numbers &amp; she's getting rude and straight up saying no, so then we called customer service who then informs me that even tough I made the reservations, they were never pushed through to the property. I asked how is this possible? How am I suppose to not be upset I made a reservation thinking everything was taken care of, couldn't I at least get an e-mail saying that the reservations never went trough? The lady said sorry you'll have to contact the hotel directly for rates &amp; availability as it's past the cutoff time &amp; we can't help. So then we asked the front desk clerk could she honor the same price seeing as it was not our fault &amp; the reservation was made through the Motel 6 website &amp; not a 3rd party, She said no, I asked the customer service rep is there any way I can talk...From the moment I started trying to call the hotel , the phone would ring ring &amp; ring. When she finally answered the lady was rude, I asked her about the price they advertised online &amp; she said no that's not the price here, book it online. Then I went online &amp; made the reservation for 2 rooms. After a very long and exhausting day we show up to check in around 1am and they inform us we don't have any reservations, I showed her the e-mail with the confirmation numbers &amp; she's getting rude and straight up saying no, so then we called customer service who then informs me that even tough I made the reservations, they were never pushed through to the property. I asked how is this possible? How am I suppose to not be upset I made a reservation thinking everything was taken care of, couldn't I at least get an e-mail saying that the reservations never went trough? The lady said sorry you'll have to contact the hotel directly for rates &amp; availability as it's past the cutoff time &amp; we can't help. So then we asked the front desk clerk could she honor the same price seeing as it was not our fault &amp; the reservation was made through the Motel 6 website &amp; not a 3rd party, She said no, I asked the customer service rep is there any way I can talk to a supervisor &amp; they can call the hotel &amp; have them  honor the same price? Her answer? I'm sorry we're just the customer service center there's nothing we can do. It honestly didn't even feel like they were trying to help fix the issue One of the most horrible &amp; rude experiences I've had. I myself work in the hotel business &amp; I would NEVER dismiss someone the way this front desk lady did!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r391357854-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
   </si>
   <si>
-    <t>56133</t>
-  </si>
-  <si>
-    <t>1157428</t>
-  </si>
-  <si>
     <t>391357854</t>
   </si>
   <si>
@@ -180,9 +222,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>td2233</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r389490403-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
   </si>
   <si>
@@ -198,12 +237,6 @@
     <t>as soon as we walked in I saw a roach crawling across the floor and the bathroom was absolutely filthy. The air conditioning leaked water all on the floor throughout the night causing my bag to get wet. The walls are extremely thin, we could not enjoy our stay due to all the activity going on next door and the room reeked of heavy smoke.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>David L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r388579825-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
   </si>
   <si>
@@ -219,9 +252,6 @@
     <t>Clean sheets and soft pillows. If that is all you require you'll be OK.Room had no wash cloths, Towels thin and mold around tub. Pool was/is closed and green. To bad it was 100°. While Motel 6 does not serve a breakfast it is located in the middle of two waffle houses and a plethora of fast food restaurants. Noise level was not bad for being next to 35E.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, Experience Team Member at Motel 6 Dallas - De Soto - Lancaster, responded to this reviewResponded July 8, 2016</t>
   </si>
   <si>
@@ -231,7 +261,52 @@
     <t>Clean sheets and soft pillows. If that is all you require you'll be OK.Room had no wash cloths, Towels thin and mold around tub. Pool was/is closed and green. To bad it was 100°. While Motel 6 does not serve a breakfast it is located in the middle of two waffle houses and a plethora of fast food restaurants. Noise level was not bad for being next to 35E.More</t>
   </si>
   <si>
-    <t>Debora D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r319194364-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>319194364</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Great start to what was a great vacation</t>
+  </si>
+  <si>
+    <t>My friend and I go to Padre Island National Seashore twice a year, and this was the first night of our trip.  I got off work, we met at my place with the rental car, and we went sailing down the highway.  We planned to just drive until we dropped, and we dropped in Lancaster at about 12:30 that night.  The room was really big, and the beds were exquisite.  Just what we wanted!  The rate was about $50, which I felt to be extremely reasonable.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r293156925-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
+  </si>
+  <si>
+    <t>293156925</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Hotel charged my card twice; six hours apart</t>
+  </si>
+  <si>
+    <t>This sorry excuse for a hotel charged my card at check in and then again six hours later for all the money I had on my card.  I had to call the police to get a refund because the desk worker suddenly could neither speak nor comprehend English when I questioned about the charges and asked for the manager.  He said that I needed to call my bank to refute the charges, which is incorrect.  I had the police listen via speakerphone that two charges had been made on my card six hours apart.  Then the desk attendant started changing his story again and again about what happened and suddenly the manager appeared out of the back room. DO NOT STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - De Soto - Lancaster, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>This sorry excuse for a hotel charged my card at check in and then again six hours later for all the money I had on my card.  I had to call the police to get a refund because the desk worker suddenly could neither speak nor comprehend English when I questioned about the charges and asked for the manager.  He said that I needed to call my bank to refute the charges, which is incorrect.  I had the police listen via speakerphone that two charges had been made on my card six hours apart.  Then the desk attendant started changing his story again and again about what happened and suddenly the manager appeared out of the back room. DO NOT STAY HERE!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r219066172-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
@@ -253,9 +328,6 @@
   </si>
   <si>
     <t>Hotel room has been updated since these photos. The 1970's bedspread is gone! Room was a little on the small side, but very clean and not cramped for two people. Beds were decent and shower water pressure was great. A few signs of age in the tub, but overall a sufficient room for an overnight stay. The young man at check-in was pleasant and helpful. No coffee pot in room and no complimentary shampoo bottles. Tiny, thin towels.We were attending an event at the Cotton Bowl and opted to stay just outside the city where hotel rates are much cheaper. This location is on the freeway about 15 minutes south of downtown Dallas, so we avoided the madness of traffic and freeway confusion in the city.There are several budget hotels within a one mile stretch and we have stayed at the Holiday Inn Express before which was excellent. However, the Motel 6 was 50+ dollars cheaper and that practically paid for our gas! I was afraid it might be too rundown, but it was in good shape and we had a comfortable one night stay,More</t>
-  </si>
-  <si>
-    <t>Dave A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56133-d1157428-r175826190-Motel_6_Dallas_De_Soto_Lancaster-Lancaster_Texas.html</t>
@@ -784,124 +856,114 @@
       <c r="A2" t="n">
         <v>47923</v>
       </c>
-      <c r="B2" t="n">
-        <v>169250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47923</v>
       </c>
-      <c r="B3" t="n">
-        <v>169251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -909,135 +971,123 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47923</v>
       </c>
-      <c r="B4" t="n">
-        <v>5027</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47923</v>
       </c>
-      <c r="B5" t="n">
-        <v>169252</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1045,78 +1095,328 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47923</v>
       </c>
-      <c r="B6" t="n">
-        <v>19648</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
       <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47923</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
